--- a/StreetStyleStore.xlsx
+++ b/StreetStyleStore.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaha\OneDrive\Desktop\luminar\Manual testing\PROJRCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8b52b068ce533d7/Desktop/luminar/Manual testing/PROJRCT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD1368-AF0C-4AC4-82CE-7A3DB4B8711A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{4CCD1368-AF0C-4AC4-82CE-7A3DB4B8711A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{775EB2ED-556F-4FCE-85DD-96475DCFE2F3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B61EC630-1996-4BD3-84D1-4AF11D1F390C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B61EC630-1996-4BD3-84D1-4AF11D1F390C}"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="2" r:id="rId1"/>
@@ -3709,7 +3709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3755,12 +3755,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3819,7 +3813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3895,6 +3889,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3910,8 +3910,11 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3922,9 +3925,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3932,22 +3932,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3995,11 +3990,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4013,15 +4008,20 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="100"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -4062,7 +4062,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Defect Distribution'!$E$4</c:f>
+              <c:f>'Defect Distribution'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4073,13 +4073,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -4099,7 +4112,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
@@ -4124,14 +4137,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -4141,7 +4153,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Defect Distribution'!$C$5:$D$8</c:f>
+              <c:f>'Defect Distribution'!$C$4:$D$7</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -4177,7 +4189,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Defect Distribution'!$E$5:$E$8</c:f>
+              <c:f>'Defect Distribution'!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4198,7 +4210,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0EE1-445B-918B-D700CA205C79}"/>
+              <c16:uniqueId val="{00000000-FBE6-4356-A03A-AA5F36477468}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4210,14 +4222,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="65"/>
         <c:shape val="box"/>
-        <c:axId val="47811023"/>
-        <c:axId val="47807951"/>
+        <c:axId val="916026879"/>
+        <c:axId val="913593903"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="47811023"/>
+        <c:axId val="916026879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4229,8 +4241,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4239,11 +4257,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4254,7 +4272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47807951"/>
+        <c:crossAx val="913593903"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4262,7 +4280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47807951"/>
+        <c:axId val="913593903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4272,7 +4290,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -4300,9 +4318,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4313,7 +4331,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47811023"/>
+        <c:crossAx val="916026879"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4337,14 +4355,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -4410,60 +4444,87 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -4475,95 +4536,124 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4579,21 +4669,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4603,23 +4691,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4628,17 +4715,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4647,12 +4734,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -4666,13 +4753,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -4680,12 +4769,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4699,12 +4788,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -4718,17 +4807,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4737,17 +4826,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4756,27 +4844,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4784,11 +4880,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr/>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4796,14 +4893,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4815,12 +4912,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4829,14 +4926,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4845,9 +4941,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4857,20 +4953,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4879,11 +4974,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4891,14 +4991,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4907,23 +5001,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A69A118-4197-17A1-3EA7-333CA5D7B5DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA528C8-1A73-23DC-85A2-36CED511503D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5259,46 +5353,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -6435,46 +6529,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -7345,7 +7439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26685901-3E42-4C4F-A904-09E53F2F1A8A}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -7361,46 +7455,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -8977,46 +9071,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>573</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -10016,92 +10110,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>969</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="27" t="s">
         <v>835</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="27" t="s">
         <v>836</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="27" t="s">
         <v>837</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="27" t="s">
         <v>838</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="27" t="s">
         <v>839</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="27" t="s">
         <v>840</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11669,10 +11763,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4AA34B-ED2B-43A8-8B7A-C583CD809719}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11688,185 +11782,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="A1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="A2" s="36" t="s">
+        <v>982</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36" t="s">
+        <v>983</v>
+      </c>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="A3" s="36" t="s">
+        <v>984</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="36" t="s">
+        <v>994</v>
+      </c>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="A4" s="28" t="s">
+        <v>985</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>986</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>987</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="C5" s="9">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9">
+        <v>47</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="C6" s="9">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9">
+        <v>36</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="C7" s="9">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9">
+        <v>67</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D10" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D11" s="33" t="s">
-        <v>982</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="33" t="s">
-        <v>983</v>
-      </c>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D12" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="33" t="s">
-        <v>994</v>
-      </c>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="36" t="s">
-        <v>985</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>986</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>987</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>988</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="C8" s="9">
         <v>30</v>
       </c>
-      <c r="G14" s="9">
-        <v>17</v>
-      </c>
-      <c r="H14" s="9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15" s="9">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="F15" s="9">
-        <v>27</v>
-      </c>
-      <c r="G15" s="9">
-        <v>9</v>
-      </c>
-      <c r="H15" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16" s="9">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="F16" s="9">
-        <v>42</v>
-      </c>
-      <c r="G16" s="9">
-        <v>25</v>
-      </c>
-      <c r="H16" s="9">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17" s="9">
-        <v>4</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="F17" s="9">
-        <v>30</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="D8" s="9">
         <v>11</v>
       </c>
-      <c r="H17" s="9">
+      <c r="E8" s="9">
         <v>41</v>
       </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:C3"/>
@@ -11881,105 +11932,77 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CB71F4-5110-4AD2-A554-90AB507D4765}">
-  <dimension ref="C4:H15"/>
+  <dimension ref="C2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.21875" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="44" t="s">
+    <row r="2" spans="3:5" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="44" t="s">
         <v>997</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D3" s="45" t="s">
         <v>995</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E3" s="45" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="9">
+    <row r="4" spans="3:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="43">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D4" s="42" t="s">
         <v>991</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E4" s="43">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="9">
+    <row r="5" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="43">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D5" s="42" t="s">
         <v>992</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E5" s="43">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="9">
+    <row r="6" spans="3:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="43">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D6" s="42" t="s">
         <v>990</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E6" s="43">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="9">
+    <row r="7" spans="3:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="43">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D7" s="42" t="s">
         <v>993</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E7" s="43">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F11" s="46"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="46"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F13" s="46"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F14" s="46"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
